--- a/doc/kk.xlsx
+++ b/doc/kk.xlsx
@@ -64,9 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>發短音的ㄧ</t>
-  </si>
-  <si>
     <t>it [ɪt]、his[hɪz]、twenty[ˋtwɛntɪ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>發長音的ㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>feed [fid]、tea [ti]、relief [rɪˋlif]、ceiling [ˋsilɪŋ]、these [ðiz]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘴形放鬆張開，發短音的ㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>full [fʊl]、book [bʊk]、could [kʊd]</t>
   </si>
   <si>
@@ -221,9 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘴形向前噘起，發長音的ㄨ</t>
-  </si>
-  <si>
     <t>moon [mun]、suit [sut]、clue [klu]、through [θru]、chew [tʃu]、mute [mjut]</t>
   </si>
   <si>
@@ -239,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘴形放鬆張開，發短音ㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bug [bʌg]、color [ˋkʌlɚ]</t>
   </si>
   <si>
@@ -275,9 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>舌尖往後上方捲，發短音的ㄦ</t>
-  </si>
-  <si>
     <t>better [ˋbɛtɚ]、familiar [fəˋmɪljɚ]、color [ˋkʌlɚ]、nature [ˋnetʃɚ]</t>
   </si>
   <si>
@@ -628,9 +607,6 @@
   <si>
     <t>發短音的ㄨ</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>world [wɝld]、who [hu]、one [wʌn]</t>
   </si>
   <si>
     <t>&lt;2&gt;無聲子音</t>
@@ -881,6 +857,34 @@
       </rPr>
       <t>dənts]</t>
     </r>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，發短音ㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發短音的ㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖往後上方捲，發短音的ㄦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發長音的ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world [wɝld]、who [hwu]、one [wʌn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形向前噘起，發長音的ㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，發短音的ㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1277,7 +1281,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1338,21 +1342,21 @@
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="4">
         <v>18</v>
@@ -1361,21 +1365,21 @@
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="4">
         <v>15</v>
@@ -1384,21 +1388,21 @@
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="4">
         <v>15</v>
@@ -1407,21 +1411,21 @@
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="4">
         <v>19</v>
@@ -1430,21 +1434,21 @@
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="4">
         <v>15</v>
@@ -1453,21 +1457,21 @@
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D12" s="4">
         <v>15</v>
@@ -1476,21 +1480,21 @@
         <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D13" s="4">
         <v>17</v>
@@ -1499,21 +1503,21 @@
         <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="4">
         <v>14.5</v>
@@ -1522,21 +1526,21 @@
         <v>15.5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4">
         <v>18</v>
@@ -1545,21 +1549,21 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4">
         <v>18</v>
@@ -1568,21 +1572,21 @@
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4">
         <v>15</v>
@@ -1591,21 +1595,21 @@
         <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4">
         <v>15</v>
@@ -1614,21 +1618,21 @@
         <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4">
         <v>15</v>
@@ -1637,10 +1641,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1650,7 +1654,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1666,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -1681,18 +1685,18 @@
         <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4">
         <v>18.5</v>
@@ -1701,21 +1705,21 @@
         <v>19.5</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4">
         <v>18</v>
@@ -1724,21 +1728,21 @@
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D26" s="4">
         <v>18.5</v>
@@ -1747,10 +1751,10 @@
         <v>19.5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1760,7 +1764,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1773,7 +1777,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1789,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>4</v>
@@ -1804,18 +1808,18 @@
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D33" s="4">
         <v>17</v>
@@ -1824,21 +1828,21 @@
         <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D34" s="4">
         <v>17</v>
@@ -1847,21 +1851,21 @@
         <v>18</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D35" s="4">
         <v>17</v>
@@ -1870,21 +1874,21 @@
         <v>18</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D36" s="4">
         <v>17</v>
@@ -1893,21 +1897,21 @@
         <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D37" s="4">
         <v>17</v>
@@ -1916,21 +1920,21 @@
         <v>18</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D38" s="4">
         <v>16</v>
@@ -1939,21 +1943,21 @@
         <v>18</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D39" s="4">
         <v>16</v>
@@ -1962,21 +1966,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D40" s="4">
         <v>16</v>
@@ -1985,21 +1989,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D41" s="4">
         <v>17</v>
@@ -2008,21 +2012,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D42" s="4">
         <v>22.5</v>
@@ -2031,21 +2035,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D43" s="4">
         <v>17</v>
@@ -2054,21 +2058,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D44" s="4">
         <v>17</v>
@@ -2077,21 +2081,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D45" s="4">
         <v>16</v>
@@ -2100,21 +2104,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D46" s="4">
         <v>16</v>
@@ -2123,21 +2127,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D47" s="4">
         <v>16</v>
@@ -2146,10 +2150,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G47" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2159,7 +2163,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2175,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -2190,18 +2194,18 @@
         <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D52" s="4">
         <v>17</v>
@@ -2210,21 +2214,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D53" s="4">
         <v>17</v>
@@ -2233,21 +2237,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G53" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D54" s="4">
         <v>17</v>
@@ -2256,21 +2260,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G54" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D55" s="4">
         <v>17</v>
@@ -2279,21 +2283,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G55" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="32.4">
       <c r="A56" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D56" s="4">
         <v>17</v>
@@ -2302,21 +2306,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G56" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D57" s="4">
         <v>17</v>
@@ -2325,21 +2329,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G57" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D58" s="4">
         <v>16</v>
@@ -2348,21 +2352,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G58" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D59" s="4">
         <v>16.5</v>
@@ -2371,21 +2375,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D60" s="4">
         <v>16</v>
@@ -2394,15 +2398,15 @@
         <v>17</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G60" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2410,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>4</v>
@@ -2425,18 +2429,18 @@
         <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D65" s="4">
         <v>16</v>
@@ -2445,21 +2449,21 @@
         <v>17</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D66" s="4">
         <v>16</v>
@@ -2468,21 +2472,21 @@
         <v>17</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D67" s="4">
         <v>16</v>
@@ -2491,10 +2495,10 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/doc/kk.xlsx
+++ b/doc/kk.xlsx
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ee、ea、ie、ei、ey、e_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ i ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,9 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a、e、ea</t>
-  </si>
-  <si>
     <t>[ ɛ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,9 +95,6 @@
     <t>many [ˋmɛnɪ]、letter [ˋlɛtɚ]、pleasure [ˋplɛʒɚ]</t>
   </si>
   <si>
-    <t>ai、ei、ay、ey、ea、a_e</t>
-  </si>
-  <si>
     <t>[ e ]</t>
   </si>
   <si>
@@ -153,9 +143,6 @@
     <t>wash [wɑʃ]、stop [stɑp]</t>
   </si>
   <si>
-    <t>al、au、aw、ou</t>
-  </si>
-  <si>
     <t>[ ɔ ]</t>
   </si>
   <si>
@@ -169,9 +156,6 @@
     <t>call [kɔl]、author [ˋɔθɚ]、law [lɔ]、bought [bɔt]</t>
   </si>
   <si>
-    <t>oa、oe、ow、ough、o_e</t>
-  </si>
-  <si>
     <t>[ o ]</t>
   </si>
   <si>
@@ -185,10 +169,6 @@
     <t>coat [kot]、poet [ˋpoɪɪt]、flow [flo]、although [ɔlˋðo]、phone [fon]</t>
   </si>
   <si>
-    <t>u、oo、ou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ ʊ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,9 +180,6 @@
     <t>full [fʊl]、book [bʊk]、could [kʊd]</t>
   </si>
   <si>
-    <t>oo、ui、ue、ou、ew、u_e</t>
-  </si>
-  <si>
     <t>[ u ]</t>
   </si>
   <si>
@@ -247,9 +224,6 @@
     <t>ago [əˋgo]、together [təˋgɛðɚ]、calendar [ˋkæləndɚ]</t>
   </si>
   <si>
-    <t>er、ar、or、ure</t>
-  </si>
-  <si>
     <t>[ ɚ ]</t>
   </si>
   <si>
@@ -260,9 +234,6 @@
     <t>better [ˋbɛtɚ]、familiar [fəˋmɪljɚ]、color [ˋkʌlɚ]、nature [ˋnetʃɚ]</t>
   </si>
   <si>
-    <t>ir、er、ur、ear</t>
-  </si>
-  <si>
     <t>[ ɝ ]</t>
   </si>
   <si>
@@ -287,10 +258,6 @@
     <t>單字範例</t>
   </si>
   <si>
-    <t>i、ie、igh、i_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ aɪ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,9 +273,6 @@
     <t>child [tʃaɪld]、tie [taɪ]、light [laɪt]、fire [faɪr]</t>
   </si>
   <si>
-    <t>ou、ow</t>
-  </si>
-  <si>
     <t>[ aʊ ]</t>
   </si>
   <si>
@@ -323,10 +287,6 @@
     <t>loud [laʊd]、flower [ˋflaʊɚ]</t>
   </si>
   <si>
-    <t>oy、oi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ ɔɪ ]</t>
   </si>
   <si>
@@ -349,9 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b、bb</t>
-  </si>
-  <si>
     <t>[ b ]</t>
   </si>
   <si>
@@ -365,9 +322,6 @@
     <t>basic [ˋbesɪk]、bubble [ˋbʌb!]</t>
   </si>
   <si>
-    <t>d、dd</t>
-  </si>
-  <si>
     <t>[ d ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,9 +335,6 @@
     <t>dinner [ˋdɪnɚ]、addition [əˋdɪʃən]</t>
   </si>
   <si>
-    <t>g、gg</t>
-  </si>
-  <si>
     <t>[ g ]</t>
   </si>
   <si>
@@ -433,9 +384,6 @@
     <t>zoo [zu]、pause [pɔz]</t>
   </si>
   <si>
-    <t>th</t>
-  </si>
-  <si>
     <t>[ ð ]</t>
   </si>
   <si>
@@ -450,10 +398,6 @@
     <t>this [ðɪs]</t>
   </si>
   <si>
-    <t>si、su、ge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ ʒ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -469,9 +413,6 @@
     <t>television [ˋtɛlə͵vɪʒən]、pleasure [ˋplɛʒɚ]</t>
   </si>
   <si>
-    <t>j、ge、dge、gi、gy</t>
-  </si>
-  <si>
     <t>[ dʒ ]</t>
   </si>
   <si>
@@ -486,9 +427,6 @@
     <t>enjoy [ɪnˋdʒɔɪ]、change [tʃendʒ]、judge [dʒʌdʒ]、apologize [əˋpɑlə͵dʒaɪz]、gym [dʒɪm]</t>
   </si>
   <si>
-    <t>l、ll</t>
-  </si>
-  <si>
     <t>[ l ]</t>
   </si>
   <si>
@@ -503,9 +441,6 @@
     <t>lend [lɛnd]、fall [fɔl]</t>
   </si>
   <si>
-    <t>r、rr</t>
-  </si>
-  <si>
     <t>[ r ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,10 +456,6 @@
     <t>romantic [roˋmæntɪk]、mirror [ˋmɪrɚ]</t>
   </si>
   <si>
-    <t>m、mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ m ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,10 +471,6 @@
     <t>moon [mun]、community [kəˋmjunətɪ]</t>
   </si>
   <si>
-    <t>n、nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ n ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,10 +486,6 @@
     <t>clean [klin]、tennis [ˋtɛnɪs]</t>
   </si>
   <si>
-    <t>ng、nk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ ŋ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,9 +518,6 @@
     <t>young [jʌŋ]</t>
   </si>
   <si>
-    <t>w、wh、o</t>
-  </si>
-  <si>
     <t>[ w ]</t>
   </si>
   <si>
@@ -613,9 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p、pp</t>
-  </si>
-  <si>
     <t>[ p ]</t>
   </si>
   <si>
@@ -629,9 +546,6 @@
     <t>keep [kip]、application [ˋæplə͵keʃən]</t>
   </si>
   <si>
-    <t>t、tt</t>
-  </si>
-  <si>
     <t>[ t ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,9 +561,6 @@
     <t>table [ˋteb!]、letter [ˋlɛtɚ]</t>
   </si>
   <si>
-    <t>c、k、ck、ch</t>
-  </si>
-  <si>
     <t>[ k ]</t>
   </si>
   <si>
@@ -664,9 +575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>h、wh</t>
-  </si>
-  <si>
     <t>[ h ]</t>
   </si>
   <si>
@@ -680,10 +588,6 @@
     <t>heaven [ˋhɛvən]、when [hwɛn]</t>
   </si>
   <si>
-    <t>f、fe、gh、ph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ f ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,9 +603,6 @@
     <t>family [ˋfæməlɪ]、life [laɪf]、cough [kɔf]、phase [fez]</t>
   </si>
   <si>
-    <t>s、c、sc</t>
-  </si>
-  <si>
     <t>[ s ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,10 +619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ θ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,9 +634,6 @@
     <t>health [hɛlθ]</t>
   </si>
   <si>
-    <t>c、s、sh、tion</t>
-  </si>
-  <si>
     <t>[ ʃ ]</t>
   </si>
   <si>
@@ -754,10 +648,6 @@
     <t>special [ˋspɛʃəl]、sure [ʃʊr]、fish [fɪʃ]、action [ˋækʃən]</t>
   </si>
   <si>
-    <t>ch、tch、ture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ tʃ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,10 +667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ t r ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -797,10 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ d r ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -814,10 +696,6 @@
   </si>
   <si>
     <t>drink [drɪŋk]、drive [draɪv]、draw [drɔ]</t>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[ t s ]</t>
@@ -884,6 +762,150 @@
   </si>
   <si>
     <t>嘴形放鬆張開，發短音的ㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、e、e a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a i、e i、a y、e y、e a、a_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a l、a u、a w、o u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o a、o e、o w、o u g h、o_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u、o o、o u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o o、u i、u e、o u、e w、u_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e r、a r、o r、u r e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o u、o w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o y、o i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s i、s u、g e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j、g e、d g e、g i、g y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b、b b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d、d d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g、g g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l、l l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r、r r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m、m m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n、n n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ng、n k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w、w h、o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p、p p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t、t t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c、k、c k、c h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h、w h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f、f e、g h、p h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s、c、s c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c、s、s h、t i o n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c h、t c h、t u r e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e e、e a、i e、e i、e y、e_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i、i e、i g h、i_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i r、e r、u r、e a r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1280,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1342,7 +1364,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1350,13 +1372,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="4">
         <v>18</v>
@@ -1365,21 +1387,21 @@
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
         <v>15</v>
@@ -1388,21 +1410,21 @@
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
         <v>15</v>
@@ -1411,21 +1433,21 @@
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4">
         <v>19</v>
@@ -1434,21 +1456,21 @@
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4">
         <v>15</v>
@@ -1457,21 +1479,21 @@
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4">
         <v>15</v>
@@ -1480,21 +1502,21 @@
         <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4">
         <v>17</v>
@@ -1503,21 +1525,21 @@
         <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4">
         <v>14.5</v>
@@ -1526,21 +1548,21 @@
         <v>15.5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4">
         <v>18</v>
@@ -1549,21 +1571,21 @@
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4">
         <v>18</v>
@@ -1572,21 +1594,21 @@
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4">
         <v>15</v>
@@ -1595,21 +1617,21 @@
         <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D18" s="4">
         <v>15</v>
@@ -1618,21 +1640,21 @@
         <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4">
         <v>15</v>
@@ -1641,10 +1663,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1654,7 +1676,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1670,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -1685,18 +1707,18 @@
         <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D24" s="4">
         <v>18.5</v>
@@ -1705,21 +1727,21 @@
         <v>19.5</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4">
         <v>18</v>
@@ -1728,21 +1750,21 @@
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4">
         <v>18.5</v>
@@ -1751,10 +1773,10 @@
         <v>19.5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1764,7 +1786,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1777,7 +1799,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1793,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>4</v>
@@ -1808,18 +1830,18 @@
         <v>7</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D33" s="4">
         <v>17</v>
@@ -1828,21 +1850,21 @@
         <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D34" s="4">
         <v>17</v>
@@ -1851,21 +1873,21 @@
         <v>18</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D35" s="4">
         <v>17</v>
@@ -1874,21 +1896,21 @@
         <v>18</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D36" s="4">
         <v>17</v>
@@ -1897,21 +1919,21 @@
         <v>18</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D37" s="4">
         <v>17</v>
@@ -1920,21 +1942,21 @@
         <v>18</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D38" s="4">
         <v>16</v>
@@ -1943,21 +1965,21 @@
         <v>18</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="4" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D39" s="4">
         <v>16</v>
@@ -1966,21 +1988,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="4" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D40" s="4">
         <v>16</v>
@@ -1989,21 +2011,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="4" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D41" s="4">
         <v>17</v>
@@ -2012,21 +2034,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G41" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="4" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D42" s="4">
         <v>22.5</v>
@@ -2035,21 +2057,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G42" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D43" s="4">
         <v>17</v>
@@ -2058,21 +2080,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="4" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D44" s="4">
         <v>17</v>
@@ -2081,21 +2103,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="G44" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D45" s="4">
         <v>16</v>
@@ -2104,21 +2126,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D46" s="4">
         <v>16</v>
@@ -2127,21 +2149,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="G46" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D47" s="4">
         <v>16</v>
@@ -2150,10 +2172,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G47" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2163,7 +2185,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2179,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -2194,18 +2216,18 @@
         <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="D52" s="4">
         <v>17</v>
@@ -2214,21 +2236,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D53" s="4">
         <v>17</v>
@@ -2237,21 +2259,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D54" s="4">
         <v>17</v>
@@ -2260,21 +2282,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="D55" s="4">
         <v>17</v>
@@ -2283,21 +2305,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="32.4">
       <c r="A56" s="4" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="D56" s="4">
         <v>17</v>
@@ -2306,21 +2328,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D57" s="4">
         <v>17</v>
@@ -2329,21 +2351,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D58" s="4">
         <v>16</v>
@@ -2352,21 +2374,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="G58" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D59" s="4">
         <v>16.5</v>
@@ -2375,21 +2397,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="G59" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="4" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="D60" s="4">
         <v>16</v>
@@ -2398,15 +2420,15 @@
         <v>17</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="G60" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="2" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2414,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>4</v>
@@ -2429,18 +2451,18 @@
         <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="D65" s="4">
         <v>16</v>
@@ -2449,21 +2471,21 @@
         <v>17</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D66" s="4">
         <v>16</v>
@@ -2472,21 +2494,21 @@
         <v>17</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D67" s="4">
         <v>16</v>
@@ -2495,10 +2517,10 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/doc/kk.xlsx
+++ b/doc/kk.xlsx
@@ -16,15 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="236">
-  <si>
-    <t>&lt;1&gt;一、母音音標 (17個)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2&gt;單母音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="237">
   <si>
     <t>字母／字母組合</t>
   </si>
@@ -95,9 +87,6 @@
     <t>many [ˋmɛnɪ]、letter [ˋlɛtɚ]、pleasure [ˋplɛʒɚ]</t>
   </si>
   <si>
-    <t>[ e ]</t>
-  </si>
-  <si>
     <t>曲目 44.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,9 +101,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>[ æ ]</t>
-  </si>
-  <si>
     <t>曲目 49.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,9 +115,6 @@
     <t>a、o</t>
   </si>
   <si>
-    <t>[ ɑ ]</t>
-  </si>
-  <si>
     <t>曲目 52.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +282,6 @@
   </si>
   <si>
     <t>joy [dʒɔɪ]、noise [nɔɪz]</t>
-  </si>
-  <si>
-    <t>&lt;1&gt;二、子音音標 (24個)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;2&gt;有聲子音</t>
@@ -908,12 +887,52 @@
     <t>i r、e r、u r、e a r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[ æ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ e ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ɑ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;單母音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;一、母音音標 (17個)
+#https://www.youtube.com/watch?v=r32JqQG0Gwo&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=1;[第3頁]#
+#https://www.youtube.com/watch?v=V_FKxz_MSYE&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=2;[第4頁]#
+#https://www.youtube.com/watch?v=fckd-bojWz4&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=3;[第5頁]#
+#https://www.youtube.com/watch?v=b23m1RTdpkk&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=4;[第6頁]#
+#https://www.youtube.com/watch?v=ucXHQPL9H3M&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=5;[第7頁]#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;二、子音音標 (24個)
+#https://www.youtube.com/watch?v=DQD44tHoDoA&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=6;[第8頁]#
+#https://www.youtube.com/watch?v=-VS2kiH1ao8&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=7;[第9頁]#
+#https://www.youtube.com/watch?v=w9MXOLsdBbs&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=8;[第10頁]#
+#https://www.youtube.com/watch?v=ubEEt2dfs7M&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=9;[第11頁]#
+#https://www.youtube.com/watch?v=_8R05VhoXvc&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=10;[第12頁]#
+#https://www.youtube.com/watch?v=Ee70WWF0QUY&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=11;[第13頁]#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;三、音節
+#https://www.youtube.com/watch?v=bLZFfmss5mQ&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=12;[第14、15頁]#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -926,15 +945,6 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -994,16 +1004,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1314,1213 +1324,1218 @@
     <col min="7" max="7" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="356.4">
+      <c r="A1" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999">
+      <c r="A3" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.399999999999999">
-      <c r="A3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="3">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="E7" s="3">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D9" s="3">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="F18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3">
         <v>15</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E19" s="3">
         <v>16</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.399999999999999">
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E25" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="F25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="409.6">
+      <c r="A28" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="17.399999999999999">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="3">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3">
+        <v>18</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3">
+        <v>18</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3">
+        <v>18</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="3">
+        <v>17</v>
+      </c>
+      <c r="E36" s="3">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="3">
+        <v>17</v>
+      </c>
+      <c r="E37" s="3">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="3">
         <v>16</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="E38" s="3">
+        <v>18</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="32.4">
+      <c r="A39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="3">
         <v>16</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="E39" s="3">
+        <v>17</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="32.4">
+      <c r="A40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="3">
         <v>16</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="E40" s="3">
+        <v>17</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="32.4">
+      <c r="A41" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="3">
+        <v>17</v>
+      </c>
+      <c r="E41" s="3">
         <v>18</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="F41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="32.4">
+      <c r="A42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="3">
+        <v>17</v>
+      </c>
+      <c r="E43" s="3">
         <v>18</v>
       </c>
-      <c r="E15" s="4">
-        <v>19</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="F43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="32.4">
+      <c r="A44" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="3">
+        <v>17</v>
+      </c>
+      <c r="E44" s="3">
         <v>18</v>
       </c>
-      <c r="E16" s="4">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="4">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="F44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="3">
         <v>16</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="4">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="E45" s="3">
+        <v>17</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="3">
         <v>16</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="E46" s="3">
+        <v>17</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="3">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3">
+        <v>17</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.399999999999999">
+      <c r="A49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4">
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="3">
+        <v>17</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="3">
+        <v>17</v>
+      </c>
+      <c r="E53" s="3">
+        <v>18</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="3">
+        <v>17</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="3">
+        <v>17</v>
+      </c>
+      <c r="E55" s="3">
+        <v>18</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="32.4">
+      <c r="A56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="3">
+        <v>17</v>
+      </c>
+      <c r="E56" s="3">
+        <v>18</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="3">
+        <v>17</v>
+      </c>
+      <c r="E57" s="3">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="3">
         <v>16</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.399999999999999">
-      <c r="A21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
+      <c r="E58" s="3">
+        <v>17</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="32.4">
+      <c r="A60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="3">
+        <v>16</v>
+      </c>
+      <c r="E60" s="3">
+        <v>17</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.399999999999999">
+      <c r="A62" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="E24" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="4">
-        <v>18</v>
-      </c>
-      <c r="E25" s="4">
-        <v>19</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="E26" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="19.8">
-      <c r="A28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.399999999999999">
-      <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="4">
-        <v>17</v>
-      </c>
-      <c r="E33" s="4">
-        <v>18</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="4">
-        <v>17</v>
-      </c>
-      <c r="E34" s="4">
-        <v>18</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="4">
-        <v>17</v>
-      </c>
-      <c r="E35" s="4">
-        <v>18</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="4">
-        <v>17</v>
-      </c>
-      <c r="E36" s="4">
-        <v>18</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="4">
-        <v>17</v>
-      </c>
-      <c r="E37" s="4">
-        <v>18</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="4">
-        <v>16</v>
-      </c>
-      <c r="E38" s="4">
-        <v>18</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="32.4">
-      <c r="A39" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="4">
-        <v>16</v>
-      </c>
-      <c r="E39" s="4">
-        <v>17</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="32.4">
-      <c r="A40" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="4">
-        <v>16</v>
-      </c>
-      <c r="E40" s="4">
-        <v>17</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="32.4">
-      <c r="A41" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="4">
-        <v>17</v>
-      </c>
-      <c r="E41" s="4">
-        <v>18</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="32.4">
-      <c r="A42" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="4">
-        <v>22.5</v>
-      </c>
-      <c r="E42" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="4">
-        <v>17</v>
-      </c>
-      <c r="E43" s="4">
-        <v>18</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="32.4">
-      <c r="A44" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="4">
-        <v>17</v>
-      </c>
-      <c r="E44" s="4">
-        <v>18</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="4">
-        <v>16</v>
-      </c>
-      <c r="E45" s="4">
-        <v>17</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="4">
-        <v>16</v>
-      </c>
-      <c r="E46" s="4">
-        <v>17</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="4">
-        <v>16</v>
-      </c>
-      <c r="E47" s="4">
-        <v>17</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="17.399999999999999">
-      <c r="A49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="4">
-        <v>17</v>
-      </c>
-      <c r="E52" s="4">
-        <v>18</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="4">
-        <v>17</v>
-      </c>
-      <c r="E53" s="4">
-        <v>18</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="4">
-        <v>17</v>
-      </c>
-      <c r="E54" s="4">
-        <v>18</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="4">
-        <v>17</v>
-      </c>
-      <c r="E55" s="4">
-        <v>18</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="32.4">
-      <c r="A56" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="4">
-        <v>17</v>
-      </c>
-      <c r="E56" s="4">
-        <v>18</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" s="4">
-        <v>17</v>
-      </c>
-      <c r="E57" s="4">
-        <v>18</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G57" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="4">
-        <v>16</v>
-      </c>
-      <c r="E58" s="4">
-        <v>17</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="E59" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="32.4">
-      <c r="A60" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="4">
-        <v>16</v>
-      </c>
-      <c r="E60" s="4">
-        <v>17</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17.399999999999999">
-      <c r="A62" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>66</v>
+      <c r="G64" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" s="4">
+        <v>175</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="3">
         <v>16</v>
       </c>
-      <c r="E65" s="4">
-        <v>17</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>184</v>
+      <c r="E65" s="3">
+        <v>17</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="4">
+        <v>179</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="3">
         <v>16</v>
       </c>
-      <c r="E66" s="4">
-        <v>17</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>188</v>
+      <c r="E66" s="3">
+        <v>17</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="4">
+        <v>183</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="3">
         <v>16</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>191</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="97.2">
+      <c r="A69" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/doc/kk.xlsx
+++ b/doc/kk.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="225">
   <si>
     <t>字母／字母組合</t>
   </si>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曲目 41.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it [ɪt]、his[hɪz]、twenty[ˋtwɛntɪ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曲目 39.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>feed [fid]、tea [ti]、relief [rɪˋlif]、ceiling [ˋsilɪŋ]、these [ðiz]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曲目 46.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘴形向左右拉，發短音的ㄝ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,10 +75,6 @@
     <t>many [ˋmɛnɪ]、letter [ˋlɛtɚ]、pleasure [ˋplɛʒɚ]</t>
   </si>
   <si>
-    <t>曲目 44.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘴形有 2 段變化，發長音的ㄟㄧ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +85,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>曲目 49.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘴形往下張大，發ㄝˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +95,6 @@
     <t>a、o</t>
   </si>
   <si>
-    <t>曲目 52.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘴形上下張大，發短音的ㄚ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +105,6 @@
     <t>[ ɔ ]</t>
   </si>
   <si>
-    <t>曲目 54.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘴形呈圓形，發短音的ㄛ</t>
   </si>
   <si>
@@ -142,10 +114,6 @@
     <t>[ o ]</t>
   </si>
   <si>
-    <t>曲目 56.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘴形有 2 段變化，發長音的ㄡㄨ</t>
   </si>
   <si>
@@ -156,20 +124,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曲目 59.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>full [fʊl]、book [bʊk]、could [kʊd]</t>
   </si>
   <si>
     <t>[ u ]</t>
   </si>
   <si>
-    <t>曲目 61.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>moon [mun]、suit [sut]、clue [klu]、through [θru]、chew [tʃu]、mute [mjut]</t>
   </si>
   <si>
@@ -181,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曲目 70.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bug [bʌg]、color [ˋkʌlɚ]</t>
   </si>
   <si>
@@ -196,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曲目 64.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弱化音，發短音的ㄜ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,20 +162,12 @@
     <t>[ ɚ ]</t>
   </si>
   <si>
-    <t>曲目 66.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>better [ˋbɛtɚ]、familiar [fəˋmɪljɚ]、color [ˋkʌlɚ]、nature [ˋnetʃɚ]</t>
   </si>
   <si>
     <t>[ ɝ ]</t>
   </si>
   <si>
-    <t>曲目 68.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>舌尖往後上方捲，發長音的ㄦˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>曲目 73.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>發ㄞㄧ音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +199,6 @@
     <t>[ aʊ ]</t>
   </si>
   <si>
-    <t>曲目 75.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>發ㄠˋ音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,10 +209,6 @@
     <t>[ ɔɪ ]</t>
   </si>
   <si>
-    <t>曲目 77.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>發ㄡㄧ音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,9 +264,6 @@
   <si>
     <t>[ v ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 20.mp3</t>
   </si>
   <si>
     <t>下唇碰到上齒，吹氣同時振動聲帶，發音類似 / f /</t>
@@ -720,10 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>發短音的ㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>舌尖往後上方捲，發短音的ㄦ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -925,6 +850,33 @@
   <si>
     <t>&lt;1&gt;三、音節
 #https://www.youtube.com/watch?v=bLZFfmss5mQ&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=12;[第14、15頁]#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_KK音標_母音1.mp3</t>
+  </si>
+  <si>
+    <t>01_KK音標_母音1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_KK音標_母音2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05_KK音標_母音3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07_KK音標_母音4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09_KK音標_母音5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 20.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,26 +1264,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="57.109375" customWidth="1"/>
     <col min="7" max="7" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="356.4">
       <c r="A1" s="4" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1365,318 +1317,318 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="3">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="3">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="D9" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" t="s">
         <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="D11" s="3">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="D12" s="3">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="D13" s="3">
-        <v>17</v>
+        <v>28.5</v>
       </c>
       <c r="E13" s="3">
-        <v>18</v>
+        <v>29.5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="D14" s="3">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3">
-        <v>15.5</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="D15" s="3">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="3">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3">
         <v>43</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3">
-        <v>19</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="D17" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="D18" s="3">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="D19" s="3">
-        <v>15</v>
+        <v>52.5</v>
       </c>
       <c r="E19" s="3">
-        <v>16</v>
+        <v>53.5</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1686,7 +1638,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1702,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
@@ -1717,76 +1669,76 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="D24" s="3">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="D25" s="3">
-        <v>18</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="3">
-        <v>19</v>
+        <v>4.5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="D26" s="3">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="E26" s="3">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1796,7 +1748,7 @@
     </row>
     <row r="28" spans="1:7" ht="409.6">
       <c r="A28" s="4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1809,7 +1761,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1825,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -1840,18 +1792,18 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D33" s="3">
         <v>17</v>
@@ -1860,21 +1812,21 @@
         <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D34" s="3">
         <v>17</v>
@@ -1883,21 +1835,21 @@
         <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3">
         <v>17</v>
@@ -1906,21 +1858,21 @@
         <v>18</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="D36" s="3">
         <v>17</v>
@@ -1929,21 +1881,21 @@
         <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D37" s="3">
         <v>17</v>
@@ -1952,21 +1904,21 @@
         <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D38" s="3">
         <v>16</v>
@@ -1975,21 +1927,21 @@
         <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D39" s="3">
         <v>16</v>
@@ -1998,21 +1950,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D40" s="3">
         <v>16</v>
@@ -2021,21 +1973,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D41" s="3">
         <v>17</v>
@@ -2044,21 +1996,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D42" s="3">
         <v>22.5</v>
@@ -2067,21 +2019,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D43" s="3">
         <v>17</v>
@@ -2090,21 +2042,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D44" s="3">
         <v>17</v>
@@ -2113,21 +2065,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D45" s="3">
         <v>16</v>
@@ -2136,21 +2088,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G45" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D46" s="3">
         <v>16</v>
@@ -2159,21 +2111,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D47" s="3">
         <v>16</v>
@@ -2182,10 +2134,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G47" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2195,7 +2147,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2211,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -2226,18 +2178,18 @@
         <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D52" s="3">
         <v>17</v>
@@ -2246,21 +2198,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G52" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D53" s="3">
         <v>17</v>
@@ -2269,21 +2221,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D54" s="3">
         <v>17</v>
@@ -2292,21 +2244,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G54" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D55" s="3">
         <v>17</v>
@@ -2315,21 +2267,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="G55" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="32.4">
       <c r="A56" s="3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D56" s="3">
         <v>17</v>
@@ -2338,21 +2290,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G56" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D57" s="3">
         <v>17</v>
@@ -2361,21 +2313,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G57" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D58" s="3">
         <v>16</v>
@@ -2384,21 +2336,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D59" s="3">
         <v>16.5</v>
@@ -2407,21 +2359,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G59" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="3" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D60" s="3">
         <v>16</v>
@@ -2430,15 +2382,15 @@
         <v>17</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2446,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
@@ -2461,18 +2413,18 @@
         <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D65" s="3">
         <v>16</v>
@@ -2481,21 +2433,21 @@
         <v>17</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D66" s="3">
         <v>16</v>
@@ -2504,21 +2456,21 @@
         <v>17</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D67" s="3">
         <v>16</v>
@@ -2527,15 +2479,15 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="97.2">
       <c r="A69" s="3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/doc/kk.xlsx
+++ b/doc/kk.xlsx
@@ -829,12 +829,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;1&gt;三、音節
+#https://www.youtube.com/watch?v=bLZFfmss5mQ&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=12;[第14、15頁]#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_KK音標_母音1.mp3</t>
+  </si>
+  <si>
+    <t>01_KK音標_母音1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_KK音標_母音2.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05_KK音標_母音3.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07_KK音標_母音4.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09_KK音標_母音5.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 20.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;1&gt;一、母音音標 (17個)
 #https://www.youtube.com/watch?v=r32JqQG0Gwo&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=1;[第3頁]#
 #https://www.youtube.com/watch?v=V_FKxz_MSYE&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=2;[第4頁]#
 #https://www.youtube.com/watch?v=fckd-bojWz4&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=3;[第5頁]#
 #https://www.youtube.com/watch?v=b23m1RTdpkk&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=4;[第6頁]#
-#https://www.youtube.com/watch?v=ucXHQPL9H3M&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=5;[第7頁]#</t>
+#https://www.youtube.com/watch?v=ucXHQPL9H3M&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=5;[第7頁]#
+#https://www.ltedu.com.tw/web/Sharefile/LT/KK/;[補充]#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -844,39 +877,8 @@
 #https://www.youtube.com/watch?v=w9MXOLsdBbs&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=8;[第10頁]#
 #https://www.youtube.com/watch?v=ubEEt2dfs7M&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=9;[第11頁]#
 #https://www.youtube.com/watch?v=_8R05VhoXvc&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=10;[第12頁]#
-#https://www.youtube.com/watch?v=Ee70WWF0QUY&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=11;[第13頁]#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1&gt;三、音節
-#https://www.youtube.com/watch?v=bLZFfmss5mQ&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=12;[第14、15頁]#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_KK音標_母音1.mp3</t>
-  </si>
-  <si>
-    <t>01_KK音標_母音1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03_KK音標_母音2.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05_KK音標_母音3.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07_KK音標_母音4.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09_KK音標_母音5.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 20.mp3</t>
+#https://www.youtube.com/watch?v=Ee70WWF0QUY&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=11;[第13頁]#
+#https://www.ltedu.com.tw/web/Sharefile/LT/KK/;[補充]#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1276,9 +1278,9 @@
     <col min="7" max="7" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="356.4">
+    <row r="1" spans="1:7" ht="388.8">
       <c r="A1" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
@@ -1317,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D6" s="3">
         <v>22</v>
@@ -1340,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D7" s="3">
         <v>54</v>
@@ -1363,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D8" s="3">
         <v>12</v>
@@ -1386,7 +1388,7 @@
         <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" s="3">
         <v>12.5</v>
@@ -1409,7 +1411,7 @@
         <v>211</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -1432,7 +1434,7 @@
         <v>213</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" s="3">
         <v>32</v>
@@ -1455,7 +1457,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D12" s="3">
         <v>43</v>
@@ -1478,7 +1480,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D13" s="3">
         <v>28.5</v>
@@ -1501,7 +1503,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D14" s="3">
         <v>42</v>
@@ -1524,7 +1526,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D15" s="3">
         <v>58</v>
@@ -1547,7 +1549,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D16" s="3">
         <v>42</v>
@@ -1570,7 +1572,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D17" s="3">
         <v>12</v>
@@ -1593,7 +1595,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D18" s="3">
         <v>35</v>
@@ -1616,7 +1618,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D19" s="3">
         <v>52.5</v>
@@ -1680,7 +1682,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D24" s="3">
         <v>19</v>
@@ -1703,7 +1705,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D25" s="3">
         <v>3.5</v>
@@ -1726,7 +1728,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" s="3">
         <v>19.5</v>
@@ -1748,7 +1750,7 @@
     </row>
     <row r="28" spans="1:7" ht="409.6">
       <c r="A28" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1872,7 +1874,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D36" s="3">
         <v>17</v>
@@ -2487,7 +2489,7 @@
     </row>
     <row r="69" spans="1:7" ht="97.2">
       <c r="A69" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/doc/kk.xlsx
+++ b/doc/kk.xlsx
@@ -92,9 +92,6 @@
     <t>mad [mæd]</t>
   </si>
   <si>
-    <t>a、o</t>
-  </si>
-  <si>
     <t>嘴形上下張大，發短音的ㄚ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +130,6 @@
     <t>moon [mun]、suit [sut]、clue [klu]、through [θru]、chew [tʃu]、mute [mjut]</t>
   </si>
   <si>
-    <t>u、o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ ʌ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +137,6 @@
     <t>bug [bʌg]、color [ˋkʌlɚ]</t>
   </si>
   <si>
-    <t>a、o、e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ ə ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,10 +285,6 @@
   </si>
   <si>
     <t>曲目 26.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下齒輕咬舌尖，吹氣同時振動聲帶，發音接近ㄌㄜ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -669,42 +654,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a、e、e a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a i、e i、a y、e y、e a、a_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a l、a u、a w、o u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o a、o e、o w、o u g h、o_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u、o o、o u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o o、u i、u e、o u、e w、u_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e r、a r、o r、u r e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o u、o w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o y、o i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -798,18 +751,6 @@
   </si>
   <si>
     <t>t s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e e、e a、i e、e i、e y、e_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i、i e、i g h、i_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i r、e r、u r、e a r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -879,6 +820,66 @@
 #https://www.youtube.com/watch?v=_8R05VhoXvc&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=10;[第12頁]#
 #https://www.youtube.com/watch?v=Ee70WWF0QUY&amp;list=PL0KZczKsxGFOXulV_zfiaOhc5iKJhgpyU&amp;index=11;[第13頁]#
 #https://www.ltedu.com.tw/web/Sharefile/LT/KK/;[補充]#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，吹氣同時振動聲帶，發音接近ㄖ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a i、a y、a_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e e、e a、e_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o a、o e、o_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a u、a w、o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e r、u r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i r、u r、o r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o i、o y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i、i e、i_e、i g h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o o、u e、u_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o o、u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1280,12 +1281,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="388.8">
       <c r="A1" s="4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1319,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3">
         <v>22</v>
@@ -1328,7 +1329,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -1336,13 +1337,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D7" s="3">
         <v>54</v>
@@ -1351,7 +1352,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1359,13 +1360,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D8" s="3">
         <v>12</v>
@@ -1382,13 +1383,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D9" s="3">
         <v>12.5</v>
@@ -1408,10 +1409,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -1428,13 +1429,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D11" s="3">
         <v>32</v>
@@ -1443,21 +1444,21 @@
         <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D12" s="3">
         <v>43</v>
@@ -1466,21 +1467,21 @@
         <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
         <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D13" s="3">
         <v>28.5</v>
@@ -1489,21 +1490,21 @@
         <v>29.5</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
         <v>27</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D14" s="3">
         <v>42</v>
@@ -1512,21 +1513,21 @@
         <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D15" s="3">
         <v>58</v>
@@ -1535,21 +1536,21 @@
         <v>59</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D16" s="3">
         <v>42</v>
@@ -1558,21 +1559,21 @@
         <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D17" s="3">
         <v>12</v>
@@ -1581,21 +1582,21 @@
         <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3">
         <v>35</v>
@@ -1604,21 +1605,21 @@
         <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D19" s="3">
         <v>52.5</v>
@@ -1627,10 +1628,10 @@
         <v>53.5</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1640,7 +1641,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1656,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>
@@ -1671,18 +1672,18 @@
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D24" s="3">
         <v>19</v>
@@ -1691,21 +1692,21 @@
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D25" s="3">
         <v>3.5</v>
@@ -1714,21 +1715,21 @@
         <v>4.5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D26" s="3">
         <v>19.5</v>
@@ -1737,10 +1738,10 @@
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1750,7 +1751,7 @@
     </row>
     <row r="28" spans="1:7" ht="409.6">
       <c r="A28" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1763,7 +1764,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1779,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -1794,18 +1795,18 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D33" s="3">
         <v>17</v>
@@ -1814,21 +1815,21 @@
         <v>18</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D34" s="3">
         <v>17</v>
@@ -1837,21 +1838,21 @@
         <v>18</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D35" s="3">
         <v>17</v>
@@ -1860,21 +1861,21 @@
         <v>18</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D36" s="3">
         <v>17</v>
@@ -1883,21 +1884,21 @@
         <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3">
         <v>17</v>
@@ -1906,21 +1907,21 @@
         <v>18</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3">
         <v>16</v>
@@ -1929,21 +1930,21 @@
         <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D39" s="3">
         <v>16</v>
@@ -1952,21 +1953,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D40" s="3">
         <v>16</v>
@@ -1975,21 +1976,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41" s="3">
         <v>17</v>
@@ -1998,21 +1999,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D42" s="3">
         <v>22.5</v>
@@ -2021,21 +2022,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D43" s="3">
         <v>17</v>
@@ -2044,21 +2045,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D44" s="3">
         <v>17</v>
@@ -2067,21 +2068,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D45" s="3">
         <v>16</v>
@@ -2090,21 +2091,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D46" s="3">
         <v>16</v>
@@ -2113,21 +2114,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D47" s="3">
         <v>16</v>
@@ -2136,10 +2137,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2149,7 +2150,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2165,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -2180,18 +2181,18 @@
         <v>5</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D52" s="3">
         <v>17</v>
@@ -2200,21 +2201,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D53" s="3">
         <v>17</v>
@@ -2223,21 +2224,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G53" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D54" s="3">
         <v>17</v>
@@ -2246,21 +2247,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D55" s="3">
         <v>17</v>
@@ -2269,21 +2270,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G55" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="32.4">
       <c r="A56" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D56" s="3">
         <v>17</v>
@@ -2292,21 +2293,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D57" s="3">
         <v>17</v>
@@ -2315,21 +2316,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G57" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D58" s="3">
         <v>16</v>
@@ -2338,21 +2339,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D59" s="3">
         <v>16.5</v>
@@ -2361,21 +2362,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G59" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D60" s="3">
         <v>16</v>
@@ -2384,15 +2385,15 @@
         <v>17</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G60" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2400,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
@@ -2415,18 +2416,18 @@
         <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D65" s="3">
         <v>16</v>
@@ -2435,21 +2436,21 @@
         <v>17</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D66" s="3">
         <v>16</v>
@@ -2458,21 +2459,21 @@
         <v>17</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D67" s="3">
         <v>16</v>
@@ -2481,15 +2482,15 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="97.2">
       <c r="A69" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/doc/kk.xlsx
+++ b/doc/kk.xlsx
@@ -296,10 +296,6 @@
   </si>
   <si>
     <t>曲目 28.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同，發音接近ㄓ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -880,6 +876,10 @@
   </si>
   <si>
     <t>o o、u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同，發音接近ㄐㄜ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1281,12 +1281,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="388.8">
       <c r="A1" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="3">
         <v>22</v>
@@ -1329,7 +1329,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -1337,13 +1337,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="3">
         <v>54</v>
@@ -1352,7 +1352,7 @@
         <v>55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1360,13 +1360,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="3">
         <v>12</v>
@@ -1383,13 +1383,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="3">
         <v>12.5</v>
@@ -1409,10 +1409,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="3">
         <v>32</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="3">
         <v>43</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="3">
         <v>28.5</v>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="3">
         <v>42</v>
@@ -1513,7 +1513,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" s="3">
         <v>58</v>
@@ -1536,7 +1536,7 @@
         <v>59</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3">
         <v>42</v>
@@ -1559,7 +1559,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
         <v>33</v>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="3">
         <v>12</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="3">
         <v>35</v>
@@ -1605,7 +1605,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -1613,13 +1613,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="3">
         <v>52.5</v>
@@ -1677,13 +1677,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" s="3">
         <v>19</v>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="3">
         <v>3.5</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" s="3">
         <v>19.5</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="28" spans="1:7" ht="409.6">
       <c r="A28" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>55</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>59</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>63</v>
@@ -1875,7 +1875,7 @@
         <v>68</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="3">
         <v>17</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>76</v>
@@ -1930,7 +1930,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G38" t="s">
         <v>78</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>79</v>
@@ -1953,21 +1953,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G39" t="s">
         <v>81</v>
-      </c>
-      <c r="G39" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D40" s="3">
         <v>16</v>
@@ -1976,21 +1976,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s">
         <v>85</v>
-      </c>
-      <c r="G40" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D41" s="3">
         <v>17</v>
@@ -1999,21 +1999,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
         <v>89</v>
-      </c>
-      <c r="G41" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D42" s="3">
         <v>22.5</v>
@@ -2022,21 +2022,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
         <v>93</v>
-      </c>
-      <c r="G42" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D43" s="3">
         <v>17</v>
@@ -2045,21 +2045,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" t="s">
         <v>97</v>
-      </c>
-      <c r="G43" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D44" s="3">
         <v>17</v>
@@ -2068,21 +2068,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
         <v>101</v>
-      </c>
-      <c r="G44" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="D45" s="3">
         <v>16</v>
@@ -2091,21 +2091,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" t="s">
         <v>105</v>
-      </c>
-      <c r="G45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D46" s="3">
         <v>16</v>
@@ -2114,21 +2114,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" t="s">
         <v>110</v>
-      </c>
-      <c r="G46" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D47" s="3">
         <v>16</v>
@@ -2137,10 +2137,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2150,7 +2150,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2186,13 +2186,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D52" s="3">
         <v>17</v>
@@ -2201,21 +2201,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" t="s">
         <v>118</v>
-      </c>
-      <c r="G52" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D53" s="3">
         <v>17</v>
@@ -2224,21 +2224,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" t="s">
         <v>122</v>
-      </c>
-      <c r="G53" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="D54" s="3">
         <v>17</v>
@@ -2247,21 +2247,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" t="s">
         <v>126</v>
-      </c>
-      <c r="G54" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D55" s="3">
         <v>17</v>
@@ -2270,21 +2270,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
         <v>130</v>
-      </c>
-      <c r="G55" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="32.4">
       <c r="A56" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D56" s="3">
         <v>17</v>
@@ -2293,21 +2293,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" t="s">
         <v>134</v>
-      </c>
-      <c r="G56" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D57" s="3">
         <v>17</v>
@@ -2316,21 +2316,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" t="s">
         <v>138</v>
-      </c>
-      <c r="G57" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="D58" s="3">
         <v>16</v>
@@ -2339,21 +2339,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" t="s">
         <v>142</v>
-      </c>
-      <c r="G58" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D59" s="3">
         <v>16.5</v>
@@ -2362,21 +2362,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" t="s">
         <v>146</v>
-      </c>
-      <c r="G59" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D60" s="3">
         <v>16</v>
@@ -2385,15 +2385,15 @@
         <v>17</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" t="s">
         <v>150</v>
-      </c>
-      <c r="G60" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2421,13 +2421,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="D65" s="3">
         <v>16</v>
@@ -2436,21 +2436,21 @@
         <v>17</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D66" s="3">
         <v>16</v>
@@ -2459,21 +2459,21 @@
         <v>17</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D67" s="3">
         <v>16</v>
@@ -2482,15 +2482,15 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="97.2">
       <c r="A69" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/doc/kk.xlsx
+++ b/doc/kk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="-516" yWindow="672" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="kk" sheetId="1" r:id="rId1"/>
@@ -843,10 +843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a、o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o a、o e、o_e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -859,10 +855,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i r、u r、o r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>o i、o y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -880,6 +872,14 @@
   </si>
   <si>
     <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同，發音接近ㄐㄜ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、o、e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i r、u r、o r、e a r</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>30</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>34</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>37</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>39</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>45</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>51</v>
@@ -1953,7 +1953,7 @@
         <v>17</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G39" t="s">
         <v>81</v>
